--- a/用例数据/深银行/兑息/普通兑息/T日/测试结果.xlsx
+++ b/用例数据/深银行/兑息/普通兑息/T日/测试结果.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="stkcheckin" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,14 +19,141 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
+  <si>
+    <t>OCCURTIME</t>
+  </si>
+  <si>
+    <t>EXCHID</t>
+  </si>
+  <si>
+    <t>STKID</t>
+  </si>
+  <si>
+    <t>STKNAME</t>
+  </si>
+  <si>
+    <t>RIGHTSSTKID</t>
+  </si>
+  <si>
+    <t>PROCESSFLAG</t>
+  </si>
+  <si>
+    <t>CAPITALBONUS</t>
+  </si>
+  <si>
+    <t>SHAREPROJECT</t>
+  </si>
+  <si>
+    <t>BONUSPROJECT</t>
+  </si>
+  <si>
+    <t>SETTLEYEAR</t>
+  </si>
+  <si>
+    <t>RIGHTSOFFDATE</t>
+  </si>
+  <si>
+    <t>RATIONBEGINPAYDATE</t>
+  </si>
+  <si>
+    <t>RATIONENDPAYDATE</t>
+  </si>
+  <si>
+    <t>RATIONSHARELISTDATE</t>
+  </si>
+  <si>
+    <t>RATIONSHAREPRICE</t>
+  </si>
+  <si>
+    <t>BONUSRECEIVEDDATE</t>
+  </si>
+  <si>
+    <t>BONDINTEREST</t>
+  </si>
+  <si>
+    <t>CAPITALBONUSAFTERTAX</t>
+  </si>
+  <si>
+    <t>BONUSSHAREQTY</t>
+  </si>
+  <si>
+    <t>FUNDSHAREQTY</t>
+  </si>
+  <si>
+    <t>RATIONSHAREQTY</t>
+  </si>
+  <si>
+    <t>KEEPTODATE</t>
+  </si>
+  <si>
+    <t>NETAMT</t>
+  </si>
+  <si>
+    <t>PAYRATE</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>102100865</t>
+  </si>
+  <si>
+    <t>21上海大众MTN001</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>0.34000000</t>
+  </si>
+  <si>
+    <t>0.000</t>
+  </si>
+  <si>
+    <t>20221207000000</t>
+  </si>
+  <si>
+    <t>0.00000</t>
+  </si>
+  <si>
+    <t>0.00000000</t>
+  </si>
+  <si>
+    <t>20230120000000</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>102100866</t>
+  </si>
+  <si>
+    <t>21上海大众MTN002</t>
+  </si>
+  <si>
+    <t>20221205000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,11 +177,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -69,7 +198,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -114,7 +243,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +278,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -331,12 +460,241 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/用例数据/深银行/兑息/普通兑息/T日/测试结果.xlsx
+++ b/用例数据/深银行/兑息/普通兑息/T日/测试结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="stkcheckin" sheetId="1" r:id="rId1"/>
@@ -463,12 +463,15 @@
   <dimension ref="A1:X10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -542,7 +545,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
@@ -607,7 +610,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
@@ -672,13 +675,13 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -692,7 +695,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
